--- a/data/income_statement/2digits/size/46_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/46_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>46-Wholesale trade, except of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>46-Wholesale trade, except of motor vehicles and motorcycles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>238313995.3004</v>
+        <v>235555768.80329</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>285710088.7574</v>
+        <v>299115949.59773</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>403926693.13693</v>
+        <v>400800514.61749</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>480834501.74312</v>
+        <v>476794789.5338399</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>485583512.16761</v>
+        <v>481331788.09666</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>592867740.7515301</v>
+        <v>585865607.48816</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>621846698.00174</v>
+        <v>646494389.3956699</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>718547230.66746</v>
+        <v>731276275.7407</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1020103242.58949</v>
+        <v>1004686720.06133</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>987200624.81363</v>
+        <v>974601982.2294099</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1173818368.4572</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1166482652.82964</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1462555734.394</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>198980707.68792</v>
+        <v>196740504.73821</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>238957687.7003</v>
+        <v>251196014.86553</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>334285503.10721</v>
+        <v>331755217.02501</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>387937492.43891</v>
+        <v>384610255.071</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>399210472.94774</v>
+        <v>396201262.50934</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>486909843.23318</v>
+        <v>481122482.82457</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>506360709.23099</v>
+        <v>528092794.18814</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>595580632.8512</v>
+        <v>607248148.4323699</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>838455408.26222</v>
+        <v>825354893.0031999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>786004935.35458</v>
+        <v>776420263.2936801</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>922028236.0381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>917277585.1828899</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1179780923.128</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>34343318.87888</v>
+        <v>33915558.33982</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>40018267.07151</v>
+        <v>41258740.28192001</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>62803904.87306999</v>
+        <v>62300907.36983</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>85627613.62056999</v>
+        <v>85057160.34560001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>79100973.73751001</v>
+        <v>77924397.26816</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>96570389.75594001</v>
+        <v>95444940.39222999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>104319357.53797</v>
+        <v>107213200.0285</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>110302027.66003</v>
+        <v>111394688.19916</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>166865544.07546</v>
+        <v>164934167.04902</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>187608054.35485</v>
+        <v>184862506.77186</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>235828942.20738</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>233505926.26718</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>263303152.478</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>4989968.7336</v>
+        <v>4899705.725260001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>6734133.98559</v>
+        <v>6661194.45028</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>6837285.156649999</v>
+        <v>6744390.22265</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>7269395.68364</v>
+        <v>7127374.11724</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>7272065.482359999</v>
+        <v>7206128.319159999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>9387507.76241</v>
+        <v>9298184.271360001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>11166631.23278</v>
+        <v>11188395.17903</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>12664570.15623</v>
+        <v>12633439.10917</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>14782290.25181</v>
+        <v>14397660.00911</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>13587635.1042</v>
+        <v>13319212.16387</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>15961190.21172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>15699141.37957</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>19471658.788</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>15554182.99931</v>
+        <v>15410783.24395</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>17422550.64738</v>
+        <v>17836693.22564</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>23119104.48639</v>
+        <v>23021411.34157</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>26613136.94262</v>
+        <v>26529041.66268</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>29533123.12119</v>
+        <v>29463405.52288</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>35172298.42799</v>
+        <v>34889763.44994</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>39052416.25468</v>
+        <v>39313012.07796001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>42436900.64910001</v>
+        <v>43654398.05088001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>52544570.76828001</v>
+        <v>51837877.89908</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>53586503.09575</v>
+        <v>52723166.81204</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>66856934.96641999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>66044188.85802001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>81842756.59900001</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>3322223.46625</v>
+        <v>3263974.176810001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>3836851.44909</v>
+        <v>3773003.920140001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>4922888.13736</v>
+        <v>4844807.88624</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>6021697.139049999</v>
+        <v>5921382.906060001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>6365056.999809999</v>
+        <v>6227245.8385</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>9177939.859870002</v>
+        <v>9046298.80783</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>8521096.137840001</v>
+        <v>8454676.41151</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>10814003.85847</v>
+        <v>10767904.38146</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>11293192.3715</v>
+        <v>10864715.47255</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>11565074.75745</v>
+        <v>11017314.85075</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>13448557.55159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>13061096.90281</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>19107636.954</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>10989125.70763</v>
+        <v>10922946.1651</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>12200652.52198</v>
+        <v>12503564.36608</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>16279674.87368</v>
+        <v>16268647.54751</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>18537475.99278</v>
+        <v>18561588.20064</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>20777407.30399</v>
+        <v>20864730.83467</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>22342407.94711</v>
+        <v>22216597.04681</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>25503280.1491</v>
+        <v>25811045.78093</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>26958075.64844</v>
+        <v>28163596.32316</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>35284483.37044</v>
+        <v>35032005.32482</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>34892796.46825</v>
+        <v>34616770.27751999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>44962219.19714</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>44591604.69849</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>53209789.05</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1242833.82543</v>
+        <v>1223862.90204</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1385046.67631</v>
+        <v>1560124.93942</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1916541.47535</v>
+        <v>1907955.90782</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>2053963.81079</v>
+        <v>2046070.55598</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>2390658.81739</v>
+        <v>2371428.84971</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>3651950.62101</v>
+        <v>3626867.5953</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>5028039.96774</v>
+        <v>5047289.885519999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>4664821.14219</v>
+        <v>4722897.34626</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>5966895.02634</v>
+        <v>5941157.101710001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>7128631.87005</v>
+        <v>7089081.683769999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>8446158.21769</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>8391487.256719999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>9525330.595000001</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>222759812.30109</v>
+        <v>220144985.55934</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>268287538.11002</v>
+        <v>281279256.37209</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>380807588.65054</v>
+        <v>377779103.27592</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>454221364.8005</v>
+        <v>450265747.87116</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>456050389.04642</v>
+        <v>451868382.5737799</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>557695442.3235401</v>
+        <v>550975844.0382199</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>582794281.7470601</v>
+        <v>607181377.3177099</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>676110330.0183599</v>
+        <v>687621877.6898201</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>967558671.8212099</v>
+        <v>952848842.16225</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>933614121.7178799</v>
+        <v>921878815.41737</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1106961433.49078</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1100438463.97162</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1380712977.795</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>199219706.10058</v>
+        <v>197073410.43241</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>241536094.81635</v>
+        <v>254084143.84089</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>344937727.58929</v>
+        <v>342571587.61398</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>415131156.22674</v>
+        <v>411934599.02125</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>414154165.13187</v>
+        <v>410820610.2172199</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>508873318.12067</v>
+        <v>503392518.01447</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>527326502.0599</v>
+        <v>550867059.4187701</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>610348169.7361699</v>
+        <v>620079923.64824</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>877094004.63411</v>
+        <v>865125934.2073699</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>853480756.0990801</v>
+        <v>843996179.3966699</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1014563138.89639</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1010118361.60912</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1264935247.374</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>15561017.95288</v>
+        <v>15368559.96159</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>25334116.35558</v>
+        <v>25185694.76721</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>24580820.76324</v>
+        <v>24332054.59807</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>27562097.88123</v>
+        <v>27230936.75189</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>28371720.08516</v>
+        <v>27860224.43194</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>38410349.45956999</v>
+        <v>37932385.42586</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>37012675.17794999</v>
+        <v>37278520.22660001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>40627462.51487</v>
+        <v>42034156.69016</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>62337081.1454</v>
+        <v>61091166.38027</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>47360242.20094001</v>
+        <v>46479759.85962</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>72771492.81333999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>72475978.8425</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>105563936.246</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>181132655.72534</v>
+        <v>179293335.32671</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>213189642.27607</v>
+        <v>225981218.20899</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>315252913.03169</v>
+        <v>313266138.39314</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>382638228.05296</v>
+        <v>380008509.80758</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>380550309.73614</v>
+        <v>377919545.05978</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>464614882.1674099</v>
+        <v>459949064.91027</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>483940824.5386901</v>
+        <v>507159311.66989</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>559414914.7136599</v>
+        <v>568178485.4833699</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>796308063.83483</v>
+        <v>786262492.1567199</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>795049960.2932299</v>
+        <v>787058475.69022</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>924924326.93571</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>921484384.93999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1141994728.575</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>2224866.15752</v>
+        <v>2157460.50422</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>2654944.97142</v>
+        <v>2590013.25974</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>4226447.520939999</v>
+        <v>4111284.46397</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>4040194.32383</v>
+        <v>3843775.95148</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3974671.119359999</v>
+        <v>3829896.72349</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>4859887.056980001</v>
+        <v>4572551.68484</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>5265022.78251</v>
+        <v>5379002.23912</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>9109654.942169998</v>
+        <v>8694021.94166</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>15164104.45025</v>
+        <v>14568216.13724</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>8906247.518139999</v>
+        <v>8467735.15306</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>13276924.82573</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>12750181.89192</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>15116685.439</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>301166.26484</v>
+        <v>254054.63989</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>357391.21328</v>
+        <v>327217.60495</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>877546.27342</v>
+        <v>862110.1588</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>890635.9687199999</v>
+        <v>851376.5103000001</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1257464.19121</v>
+        <v>1210944.00201</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>988199.43671</v>
+        <v>938515.9935</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1107979.56075</v>
+        <v>1050225.28316</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1196137.56547</v>
+        <v>1173259.53305</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>3284755.20363</v>
+        <v>3204059.53314</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>2164306.08677</v>
+        <v>1990208.69377</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>3590394.32161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>3407815.93471</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>2259897.114</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>23540106.20051</v>
+        <v>23071575.12693</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>26751443.29367</v>
+        <v>27195112.5312</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>35869861.06125</v>
+        <v>35207515.66194</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>39090208.57376</v>
+        <v>38331148.84991001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>41896223.91455001</v>
+        <v>41047772.35656</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>48822124.20287</v>
+        <v>47583326.02375</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>55467779.68716</v>
+        <v>56314317.89894</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>65762160.28219</v>
+        <v>67541954.04158001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>90464667.18710001</v>
+        <v>87722907.95488</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>80133365.61879998</v>
+        <v>77882636.02070001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>92398294.59439</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>90320102.3625</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>115777730.421</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>17318614.66007</v>
+        <v>16879054.76358</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>20089014.94917</v>
+        <v>20049942.57807</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>25478901.09782</v>
+        <v>24880265.49145</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>29526381.69292</v>
+        <v>28833546.87427</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>30308551.86011</v>
+        <v>29529231.32269</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>36814746.49587</v>
+        <v>35806157.2004</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>40803433.80748</v>
+        <v>41199430.35576</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>45502422.87587</v>
+        <v>46396448.21505</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>59750999.46243</v>
+        <v>57840550.71381</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>52632976.92491</v>
+        <v>51026478.06597</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>62251443.71972</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>60684622.93378</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>72667596.697</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>113733.73726</v>
+        <v>109098.74396</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>86918.38175999999</v>
+        <v>80464.72215</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>99967.22798</v>
+        <v>99698.78774000001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>131802.2691</v>
+        <v>126722.77826</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>122359.48107</v>
+        <v>118952.34543</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>137496.76188</v>
+        <v>125674.42481</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>122680.74578</v>
+        <v>129648.16616</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>174400.02472</v>
+        <v>177754.86898</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>213259.06278</v>
+        <v>207490.11404</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>185554.15914</v>
+        <v>179228.69979</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>401831.59721</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>394806.0001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>326743.168</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>12392221.50277</v>
+        <v>12214790.66108</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>14327404.91797</v>
+        <v>14566092.05835</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>18243911.18736</v>
+        <v>18024224.75837</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>21146137.54447</v>
+        <v>20902729.95181</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>21936083.58262</v>
+        <v>21643951.41736</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>26390813.33184</v>
+        <v>26011320.37116</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>29167575.37862</v>
+        <v>29982496.98475</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>31861690.98833</v>
+        <v>32961879.81595001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>42581069.96308</v>
+        <v>41819117.43695</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>38823102.63747</v>
+        <v>38073203.03303999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>45171584.09285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>44518038.99831</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>52650907.695</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>4812659.420040001</v>
+        <v>4555165.35854</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>5674691.64944</v>
+        <v>5403385.797569999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>7135022.682480001</v>
+        <v>6756341.94534</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>8248441.87935</v>
+        <v>7804094.144200001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>8250108.79642</v>
+        <v>7766327.5599</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>10286436.40215</v>
+        <v>9669162.40443</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>11513177.68308</v>
+        <v>11087285.20485</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>13466331.86282</v>
+        <v>13256813.53012</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>16956670.43657</v>
+        <v>15813943.16282</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>13624320.1283</v>
+        <v>12774046.33314</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>16678028.02966</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>15771777.93537</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>19689945.834</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>6221491.540440001</v>
+        <v>6192520.36335</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>6662428.3445</v>
+        <v>7145169.95313</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>10390959.96343</v>
+        <v>10327250.17049</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>9563826.88084</v>
+        <v>9497601.975639999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>11587672.05444</v>
+        <v>11518541.03387</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>12007377.707</v>
+        <v>11777168.82335</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>14664345.87968</v>
+        <v>15114887.54318</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>20259737.40632</v>
+        <v>21145505.82653</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>30713667.72467</v>
+        <v>29882357.24107</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>27500388.69389</v>
+        <v>26856157.95473</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>30146850.87467</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>29635479.42872</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>43110133.724</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>11891761.59789</v>
+        <v>10872616.62188</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>10241698.22632</v>
+        <v>10968021.22872</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>17854146.06113</v>
+        <v>16339086.43069</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>17066813.12786</v>
+        <v>15137986.92879</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>22039561.26144</v>
+        <v>19184494.24605</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>27046654.43273</v>
+        <v>24879138.50321</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>38961362.93254</v>
+        <v>37355726.86871</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>47703707.97959001</v>
+        <v>45940473.63323</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>58805975.04330999</v>
+        <v>53105424.05482001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>114021568.11673</v>
+        <v>103518414.82695</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>72637773.07075</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>65829508.10727</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>115455021.974</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>480541.49525</v>
+        <v>149627.78866</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>542847.88901</v>
+        <v>233370.2346</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>636045.19874</v>
+        <v>250384.89374</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>621340.89237</v>
+        <v>219118.98065</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>861139.5874099999</v>
+        <v>337487.75594</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>803277.3244699999</v>
+        <v>431454.50019</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>560800.91837</v>
+        <v>193586.5469</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>912142.4942599999</v>
+        <v>331589.66691</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>2156486.90208</v>
+        <v>377287.39329</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>1421528.26125</v>
+        <v>751388.7351700001</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1565959.08332</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>812947.3982399998</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>656315.423</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>479878.3020000001</v>
+        <v>461995.7323800001</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>324681.37674</v>
+        <v>298942.6389799999</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>478332.5047700001</v>
+        <v>406716.80641</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>979592.6579599999</v>
+        <v>832879.9840100001</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>877478.7272999999</v>
+        <v>660526.7850500001</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>838736.4273400001</v>
+        <v>674916.98347</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>976610.4743600001</v>
+        <v>793478.7069</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>1248958.34903</v>
+        <v>1217596.52944</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>1138136.60334</v>
+        <v>986175.1038</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>1851588.91166</v>
+        <v>913480.7682899999</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>1132953.08501</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>1013531.33765</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>1824714.362</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>689327.7245499999</v>
+        <v>636876.3859</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>769034.8579500001</v>
+        <v>741541.36149</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>910663.50374</v>
+        <v>798734.5573900001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1064906.93852</v>
+        <v>916940.2838099999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1071361.51115</v>
+        <v>922050.2962400001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1431646.23624</v>
+        <v>1205136.66218</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1640965.35792</v>
+        <v>1469791.5223</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1745487.79113</v>
+        <v>1647643.77673</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>2647860.03117</v>
+        <v>2291704.17719</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>3877837.62528</v>
+        <v>3244458.12014</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>4730604.47757</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>4195391.432159999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>3942713.036</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>362430.69836</v>
+        <v>359514.89011</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>198782.74462</v>
+        <v>194287.61423</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>276877.97485</v>
+        <v>271709.33984</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>271665.03606</v>
+        <v>269720.53755</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>280793.12054</v>
+        <v>273713.83426</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>269551.04594</v>
+        <v>264683.29615</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>322337.93963</v>
+        <v>319133.33174</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>394790.65514</v>
+        <v>410054.33101</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>427116.4382</v>
+        <v>411558.48508</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>535948.06978</v>
+        <v>502130.7199</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>537636.57096</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>535971.44858</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>594463.578</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>341255.47782</v>
+        <v>215047.57146</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>353226.61365</v>
+        <v>235967.01498</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>428752.40491</v>
+        <v>260655.98465</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>442535.03986</v>
+        <v>288077.28875</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>404545.58584</v>
+        <v>251473.80938</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>364154.86301</v>
+        <v>318308.42247</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>518832.78851</v>
+        <v>296360.02765</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>552236.18978</v>
+        <v>409081.5958300001</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>611484.20789</v>
+        <v>528903.3001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>518231.39048</v>
+        <v>434319.1044199999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>662887.9220899999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>569294.62095</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>700487.225</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>107085.24575</v>
+        <v>102604.6342</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>437926.91089</v>
+        <v>406517.3549499999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>420571.67031</v>
+        <v>309200.22546</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>458365.11909</v>
+        <v>170731.448</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>286416.19597</v>
+        <v>229521.29271</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>585841.28273</v>
+        <v>557417.9978599999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>218031.05738</v>
+        <v>185775.14915</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>209135.49206</v>
+        <v>193101.56401</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>338230.23956</v>
+        <v>267523.54404</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>923493.40711</v>
+        <v>711770.6983300002</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>479293.0681500001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>310169.94025</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>781947.334</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>6502708.15475</v>
+        <v>6093061.344930001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>5358523.82205</v>
+        <v>5561652.73971</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>10139022.36199</v>
+        <v>9601107.986959999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>7797583.894389999</v>
+        <v>7379429.81346</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>11764596.83027</v>
+        <v>10679106.75832</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>15547822.78186</v>
+        <v>14522396.51415</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>26605323.30898</v>
+        <v>26110712.66359</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>34168203.79574</v>
+        <v>33419034.7745</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>41386266.03124</v>
+        <v>38453096.84204</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>91917742.27807</v>
+        <v>84704781.76125999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>48231676.06278</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>44137460.67539</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>93286750.712</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>141195.75692</v>
+        <v>140536.5104</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>126578.61028</v>
+        <v>119819.54026</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>136968.95967</v>
+        <v>132456.15132</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>155176.97922</v>
+        <v>149991.88141</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>346966.62709</v>
+        <v>339188.50036</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>570533.5169299999</v>
+        <v>562058.71894</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>601373.80723</v>
+        <v>584249.08479</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>653516.7337699999</v>
+        <v>724806.8859199999</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>727626.38549</v>
+        <v>693969.3935600001</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>1045371.18885</v>
+        <v>1012658.51795</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>1724654.02885</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>1697500.49698</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>1150052.059</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>19618.03276</v>
+        <v>19617.59717</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>23484.9708</v>
+        <v>23010.85391</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>22879.56421</v>
+        <v>22706.85637</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>8510.22084</v>
+        <v>6738.07113</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>11014.99849</v>
+        <v>7299.090679999999</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>14071.89549</v>
+        <v>11865.11723</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>20961.80912</v>
+        <v>19155.46779</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>30016.50076</v>
+        <v>26704.36989</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>70245.10796000001</v>
+        <v>58158.41021</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>150270.03504</v>
+        <v>148048.61153</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>138970.4868</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>133997.5427</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>142184.92</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>2767720.70973</v>
+        <v>2693734.16667</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>2106610.43033</v>
+        <v>3152911.87561</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>4404031.917939999</v>
+        <v>4285413.62855</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>5267136.34955</v>
+        <v>4904358.640020001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>6135248.077379999</v>
+        <v>5484126.123110001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>6621019.058719999</v>
+        <v>6330900.290569999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>7496125.471040001</v>
+        <v>7383484.367900001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>7789219.97792</v>
+        <v>7560860.13899</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>9302523.096379999</v>
+        <v>9037047.405510001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>11779556.94921</v>
+        <v>11095377.78996</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>13433138.28522</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>12423243.21437</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>12375393.325</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>8980916.392270001</v>
+        <v>8506318.53822</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>7239151.11212</v>
+        <v>8616388.751870001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>15848877.9534</v>
+        <v>15071433.61482</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>11320705.83324</v>
+        <v>10823744.45406</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>19678063.59579</v>
+        <v>18117848.43787</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>22600927.33027</v>
+        <v>21231607.17884</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>35976423.73889</v>
+        <v>35064887.40734001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>44549625.44661999</v>
+        <v>42854807.59989</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>52981517.99431</v>
+        <v>49205768.92462999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>108780847.17578</v>
+        <v>100024928.3973</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>63484715.4484</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>59245095.58705001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>109377719.835</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>130835.29632</v>
+        <v>123420.60343</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>159937.38756</v>
+        <v>149943.84394</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>176118.44218</v>
+        <v>171393.02446</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>201772.56548</v>
+        <v>197895.91048</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>217676.27798</v>
+        <v>216230.40694</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>245878.26408</v>
+        <v>241497.01191</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>255684.74596</v>
+        <v>246046.96599</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>323977.00698</v>
+        <v>311927.79256</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>430305.5753499999</v>
+        <v>422365.8396599999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>317169.35107</v>
+        <v>312953.24976</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>477578.57002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>475690.93394</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>690984.987</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>607973.5813</v>
+        <v>546293.41385</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>573707.87056</v>
+        <v>563103.43475</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>609671.83178</v>
+        <v>588540.0869300001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>915354.6015300001</v>
+        <v>882268.9411000001</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>998196.2280499999</v>
+        <v>957452.8428799999</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>938640.55709</v>
+        <v>911024.17053</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1313778.53035</v>
+        <v>1177011.19209</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1736898.50947</v>
+        <v>1604774.94384</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1631085.53667</v>
+        <v>1456325.26103</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1401256.10073</v>
+        <v>1346196.80065</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1721933.27561</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1664463.62619</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>1342366.344</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>66736.12134</v>
+        <v>64055.83447</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>59462.81414999998</v>
+        <v>57033.4839</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>285604.92411</v>
+        <v>265221.00034</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>145863.19646</v>
+        <v>134711.55248</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>175966.52966</v>
+        <v>162846.85482</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>516151.53461</v>
+        <v>466879.91161</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>215818.90696</v>
+        <v>220849.60565</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>186074.09412</v>
+        <v>161361.9323</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>168502.72202</v>
+        <v>145141.44249</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>475076.7433</v>
+        <v>464436.7493</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>193137.66418</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>170711.1509</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>431421.244</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>6352629.334770001</v>
+        <v>5978879.608639999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>5310082.57016</v>
+        <v>5591399.57438</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>11465585.91069</v>
+        <v>10762900.23542</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>6415387.534100001</v>
+        <v>6068353.004129999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>13625167.0829</v>
+        <v>12186392.28312</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>15941240.25408</v>
+        <v>14680834.14076</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>28606831.52445</v>
+        <v>27845708.85163</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>36660188.15454999</v>
+        <v>35063603.53492</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>43625687.14917</v>
+        <v>40159882.93693</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>96335970.51940002</v>
+        <v>87782134.75168</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>49653518.54765</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>45757807.45758</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>95039371.741</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>119384.69713</v>
+        <v>118518.03697</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>130121.1648</v>
+        <v>128178.57404</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>149557.55492</v>
+        <v>144615.75918</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>158442.53047</v>
+        <v>153930.51916</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>393893.02284</v>
+        <v>385075.77646</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>602356.0171700001</v>
+        <v>592253.66998</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>639489.8765599999</v>
+        <v>626831.6936499999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>677324.0664700001</v>
+        <v>744459.92934</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>797361.98976</v>
+        <v>772500.85705</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>1185837.01816</v>
+        <v>1153164.58232</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>1556569.63498</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>1529534.94621</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>1268460.703</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>2210.91603</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>2637.34034</v>
+        <v>2372.37286</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>6628.99387</v>
+        <v>6045.474139999999</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>1715.42593</v>
+        <v>1572.76425</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>1622.31184</v>
+        <v>1051.94768</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>6471.544879999999</v>
+        <v>5693.31527</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>12449.16901</v>
+        <v>11842.1073</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>8802.345799999999</v>
+        <v>6406.99387</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>17061.25762</v>
+        <v>8325.14847</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>186187.53978</v>
+        <v>179114.86434</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>88822.56719</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>83435.51812000002</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>46151.24</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1701146.44538</v>
+        <v>1672940.12483</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1003201.96455</v>
+        <v>2124357.468</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>3155710.29585</v>
+        <v>3132718.03435</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>3482169.97927</v>
+        <v>3385011.76246</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4265542.14252</v>
+        <v>4208798.325970001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>4350189.158360001</v>
+        <v>4333424.958780001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4932370.9856</v>
+        <v>4936596.99103</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>4956361.269230001</v>
+        <v>4962272.47306</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>6311513.76372</v>
+        <v>6241227.439</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>8879349.903340001</v>
+        <v>8786927.399250001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>9793155.18877</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>9563451.95411</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>10558963.576</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>3390626.67203</v>
+        <v>3145550.51575</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>2816089.23484</v>
+        <v>2857200.67443</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>6423100.29683</v>
+        <v>6062346.709190001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>5718126.75576</v>
+        <v>5341217.26908</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>6298384.52101</v>
+        <v>5933551.10155</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>7301873.280889999</v>
+        <v>6713765.93193</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>10091315.53741</v>
+        <v>9588290.02245</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>10779695.57826</v>
+        <v>9970089.510310002</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>14160175.61512</v>
+        <v>12482603.77933</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>20281585.21934</v>
+        <v>18404310.77074</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>19716919.72165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>18418697.96653</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>20427049.422</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>2900613.32333</v>
+        <v>2699812.008690001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>2426222.51628</v>
+        <v>2475190.247930001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>5216930.92655</v>
+        <v>4915745.72388</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>5217976.7755</v>
+        <v>4854940.736129999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>5605303.57477</v>
+        <v>5234207.662709999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>6621806.652819999</v>
+        <v>6107406.753219999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>9047066.942129999</v>
+        <v>8597552.166210001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>9699100.475219999</v>
+        <v>9003913.18052</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>12734241.57276</v>
+        <v>11194882.91176</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>17499735.24915</v>
+        <v>15779875.56693</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>17550166.17109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>16351766.82849</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>18447485.216</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>490013.3487</v>
+        <v>445738.5070599999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>389866.71856</v>
+        <v>382010.4265</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1206169.37028</v>
+        <v>1146600.98531</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>500149.98026</v>
+        <v>486276.53295</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>693080.94624</v>
+        <v>699343.4388400001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>680066.62807</v>
+        <v>606359.17871</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1044248.59528</v>
+        <v>990737.85624</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1080595.10304</v>
+        <v>966176.32979</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1425934.04236</v>
+        <v>1287720.86757</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2781849.97019</v>
+        <v>2624435.20381</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2166753.55056</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2066931.13804</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1979564.206</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>5741710.07403</v>
+        <v>5413267.93126</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>6848886.223859999</v>
+        <v>6639601.75555</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>5973127.774329999</v>
+        <v>5532556.27717</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>9591807.4197</v>
+        <v>8470627.181290001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>7650785.19908</v>
+        <v>6651635.7405</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>9151231.52857</v>
+        <v>8710934.21579</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>7557969.53592</v>
+        <v>7817436.982100001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>12634124.36103</v>
+        <v>14261082.34956</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>22377949.15855</v>
+        <v>21299408.59193</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>12459524.4155</v>
+        <v>11945333.61364</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>19582988.77537</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>17801193.98241</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>28760386.441</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>821378.1555699999</v>
+        <v>648120.7653799999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>978900.81929</v>
+        <v>901830.9743299999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1584779.3181</v>
+        <v>1358960.86115</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1379584.23455</v>
+        <v>1186428.77506</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1584328.02472</v>
+        <v>1209688.27076</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1979368.23755</v>
+        <v>1762610.26018</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>2704257.51921</v>
+        <v>2293621.04848</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3160047.30778</v>
+        <v>2502831.09708</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>3279663.84583</v>
+        <v>2645476.21501</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>3422492.516979999</v>
+        <v>2881955.36779</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>3195476.68175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>2859058.57567</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>4708864.681</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>51505.71098999999</v>
+        <v>41466.1095</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>36229.85693</v>
+        <v>23444.65932</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>88499.92520999999</v>
+        <v>64389.68603</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>75962.30632999999</v>
+        <v>71447.37467</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>65587.02331</v>
+        <v>65089.39588</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>96791.44871000001</v>
+        <v>76164.62253000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>69680.49499000001</v>
+        <v>64694.47348</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>139079.27879</v>
+        <v>138038.49989</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>126547.71062</v>
+        <v>123906.41586</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>89359.82582</v>
+        <v>88440.2497</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>159176.93437</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>153350.28723</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>127431.839</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>769872.4445799999</v>
+        <v>606654.6558799999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>942670.9623599999</v>
+        <v>878386.31501</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1496279.39289</v>
+        <v>1294571.17512</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1303621.92822</v>
+        <v>1114981.40039</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1518741.00141</v>
+        <v>1144598.87488</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1882576.78884</v>
+        <v>1686445.63765</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>2634577.02422</v>
+        <v>2228926.575</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>3020968.02899</v>
+        <v>2364792.59719</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>3153116.13521</v>
+        <v>2521569.79915</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>3333132.69116</v>
+        <v>2793515.11809</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>3036299.74738</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2705708.28844</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>4581432.842</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>712254.5035799999</v>
+        <v>628495.8385599999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>963788.7604199999</v>
+        <v>931319.9943599999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>2651192.16628</v>
+        <v>2354208.01625</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>1318083.95514</v>
+        <v>1164822.67876</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1499051.87029</v>
+        <v>1229769.40928</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1821802.48559</v>
+        <v>1519408.67116</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1823593.9419</v>
+        <v>1714873.99871</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>3035960.29717</v>
+        <v>2680500.25302</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>2850014.224979999</v>
+        <v>2352590.68482</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>3601495.26168</v>
+        <v>3128299.07375</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>3656427.71248</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>3177245.96357</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>5924523.27</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>90664.99291</v>
+        <v>83837.50347</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>88330.23495999999</v>
+        <v>79591.00332999999</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>75697.32321000002</v>
+        <v>72336.92887999999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>91629.0917</v>
+        <v>84530.24408</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>69641.66631</v>
+        <v>54301.84268000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>88939.51235999999</v>
+        <v>75337.44888</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>60918.40413</v>
+        <v>46205.20963</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>61331.54247</v>
+        <v>47289.00183</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>111742.49957</v>
+        <v>96991.86871</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>68269.71982999999</v>
+        <v>62531.62729</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>165944.44087</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>151499.2046</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>43905.161</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>84354.11281999999</v>
+        <v>82387.23278000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>138460.13554</v>
+        <v>140031.44921</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>247590.95666</v>
+        <v>192470.54885</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>139645.74956</v>
+        <v>114153.60063</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>144059.15415</v>
+        <v>106070.4644</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>178112.11797</v>
+        <v>161969.2859</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>248604.62951</v>
+        <v>244870.82071</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>304797.90885</v>
+        <v>286701.58669</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>263876.47854</v>
+        <v>251859.96527</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>254458.87607</v>
+        <v>233328.68045</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>281202.4365</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>261291.77469</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>167259.254</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>537235.3978500001</v>
+        <v>462271.10231</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>736998.3899200001</v>
+        <v>711697.5418199999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>2327903.88641</v>
+        <v>2089400.53852</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>1086809.11388</v>
+        <v>966138.8340499999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1285351.04983</v>
+        <v>1069397.1022</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1554750.85526</v>
+        <v>1282101.93638</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1514070.90826</v>
+        <v>1423797.96837</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>2669830.84585</v>
+        <v>2346509.6645</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>2474395.24687</v>
+        <v>2003738.85084</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>3278766.66578</v>
+        <v>2832438.76601</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>3209280.83511</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2764454.98428</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>5713358.855</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>5850833.72602</v>
+        <v>5432892.85808</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>6863998.282729999</v>
+        <v>6610112.73552</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>4906714.92615</v>
+        <v>4537309.12207</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>9653307.699110001</v>
+        <v>8492233.277590001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>7736061.35351</v>
+        <v>6631554.60198</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>9308797.280529998</v>
+        <v>8954135.804810001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>8438633.113229999</v>
+        <v>8396184.03187</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>12758211.37164</v>
+        <v>14083413.19362</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>22807598.7794</v>
+        <v>21592294.12212</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>12280521.6708</v>
+        <v>11698989.90768</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>19122037.74464</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>17483006.59451</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>27544727.852</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1026651.24084</v>
+        <v>1002780.79625</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1251078.47424</v>
+        <v>1260062.13669</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>1435501.81809</v>
+        <v>1382783.31545</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1637830.58377</v>
+        <v>1557367.8145</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1571751.89166</v>
+        <v>1500333.65769</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1777781.10675</v>
+        <v>1701174.92985</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>2107374.50012</v>
+        <v>2085579.91644</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>2614685.56549</v>
+        <v>2700448.19141</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>3953675.35704</v>
+        <v>3788717.02075</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>3604935.42739</v>
+        <v>3419897.52595</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>4229581.78438</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>4069592.02355</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>6409463.431</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>4824182.48518</v>
+        <v>4430112.06183</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>5612919.80849</v>
+        <v>5350050.59883</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>3471213.10806</v>
+        <v>3154525.80662</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>8015477.11534</v>
+        <v>6934865.46309</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>6164309.46185</v>
+        <v>5131220.94429</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>7531016.173780001</v>
+        <v>7252960.87496</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>6331258.613109999</v>
+        <v>6310604.115429999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>10143525.80615</v>
+        <v>11382965.00221</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>18853923.42236</v>
+        <v>17803577.10137</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>8675586.243410001</v>
+        <v>8279092.38173</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>14892455.96026</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>13413414.57096</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>21135264.421</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1167</v>
+        <v>890</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1500</v>
+        <v>1162</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1945</v>
+        <v>1572</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2365</v>
+        <v>1868</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1672</v>
+        <v>1281</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2029</v>
+        <v>1552</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2322</v>
+        <v>1800</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2779</v>
+        <v>2062</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>3514</v>
+        <v>2639</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1049</v>
+        <v>794</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>943</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>